--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
@@ -5858,780 +5858,780 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>11</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>3</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>11</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>4</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>11</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>5</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>11</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>6</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>11</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>7</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>11</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>8</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>11</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>9</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>11</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>10</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>11</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>11</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>11</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>12</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>11</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>13</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>11</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>14</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>11</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>15</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>11</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>11</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>17</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,473 +7049,473 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,579 +9545,579 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,418 +11474,418 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>20</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/42/word_level_predictions_42.xlsx
@@ -5858,780 +5858,780 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,473 +7049,473 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>15</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>15</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,603 +9521,603 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>16</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Propulsion</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>16</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>3</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>16</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>16</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>16</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>6</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>16</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ensure</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>16</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>8</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>16</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>9</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>16</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>16</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>11</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>16</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>Propulsion</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>limited</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>ensure</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11474,418 +11474,418 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12202,314 +12202,314 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
